--- a/doc/TestPRession2.xlsx
+++ b/doc/TestPRession2.xlsx
@@ -202,14 +202,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -268,14 +268,14 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="poly"/>
-            <c:order val="5"/>
+            <c:order val="6"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.17411384313157174"/>
-                  <c:y val="0.25401504387762891"/>
+                  <c:x val="-3.7278588164083172E-2"/>
+                  <c:y val="8.3347372276139906E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1198,11 +1198,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99744768"/>
-        <c:axId val="99595008"/>
+        <c:axId val="109607936"/>
+        <c:axId val="109617920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99744768"/>
+        <c:axId val="109607936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,12 +1212,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99595008"/>
+        <c:crossAx val="109617920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99595008"/>
+        <c:axId val="109617920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,7 +1228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99744768"/>
+        <c:crossAx val="109607936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1259,8 +1259,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1313,8 +1313,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.22601081910573029"/>
-                  <c:y val="-5.3725672484141632E-2"/>
+                  <c:x val="-0.30004191857589574"/>
+                  <c:y val="-6.5930068222688626E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2288,11 +2288,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="36612352"/>
-        <c:axId val="36813056"/>
+        <c:axId val="112470656"/>
+        <c:axId val="112488832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36612352"/>
+        <c:axId val="112470656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,12 +2302,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36813056"/>
+        <c:crossAx val="112488832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36813056"/>
+        <c:axId val="112488832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,7 +2318,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36612352"/>
+        <c:crossAx val="112470656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2349,8 +2349,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2714,8 +2714,8 @@
   </sheetPr>
   <dimension ref="A1:EN70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI44" sqref="AI44"/>
+    <sheetView tabSelected="1" topLeftCell="U43" workbookViewId="0">
+      <selection activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2724,28 +2724,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -2757,10 +2757,10 @@
       <c r="O3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="20">
         <v>42073</v>
       </c>
-      <c r="Q3" s="18"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -4984,433 +4984,433 @@
       <c r="A69" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="19">
+      <c r="B69" s="17">
         <v>1.0193679918450561E-14</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="17">
         <v>1.0193679918450561E-14</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="17">
         <v>0.17329255861365953</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E69" s="17">
         <v>0.33129459734964323</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F69" s="17">
         <v>0.44852191641182471</v>
       </c>
-      <c r="G69" s="19">
+      <c r="G69" s="17">
         <v>0.24464831804281342</v>
       </c>
-      <c r="H69" s="19">
+      <c r="H69" s="17">
         <v>0.3058103975535168</v>
       </c>
-      <c r="I69" s="19">
+      <c r="I69" s="17">
         <v>0.27522935779816515</v>
       </c>
-      <c r="J69" s="19">
+      <c r="J69" s="17">
         <v>0.28542303771661565</v>
       </c>
-      <c r="K69" s="19">
+      <c r="K69" s="17">
         <v>0.38735983690112125</v>
       </c>
-      <c r="L69" s="19">
+      <c r="L69" s="17">
         <v>0.3567787971457696</v>
       </c>
-      <c r="M69" s="19">
+      <c r="M69" s="17">
         <v>0.66258919469928645</v>
       </c>
-      <c r="N69" s="19">
+      <c r="N69" s="17">
         <v>0.34658511722731905</v>
       </c>
-      <c r="O69" s="19">
+      <c r="O69" s="17">
         <v>0.56065239551478085</v>
       </c>
-      <c r="P69" s="19">
+      <c r="P69" s="17">
         <v>0.7339449541284403</v>
       </c>
-      <c r="Q69" s="19">
+      <c r="Q69" s="17">
         <v>0.4587155963302752</v>
       </c>
-      <c r="R69" s="19">
+      <c r="R69" s="17">
         <v>0.9174311926605504</v>
       </c>
-      <c r="S69" s="19">
+      <c r="S69" s="17">
         <v>0.44852191641182471</v>
       </c>
-      <c r="T69" s="19">
+      <c r="T69" s="17">
         <v>0.8154943934760448</v>
       </c>
-      <c r="U69" s="19">
+      <c r="U69" s="17">
         <v>0.61671763506625887</v>
       </c>
-      <c r="V69" s="19">
+      <c r="V69" s="17">
         <v>0.6116207951070336</v>
       </c>
-      <c r="W69" s="19">
+      <c r="W69" s="17">
         <v>0.66258919469928645</v>
       </c>
-      <c r="X69" s="19">
+      <c r="X69" s="17">
         <v>0.67278287461773689</v>
       </c>
-      <c r="Y69" s="19">
+      <c r="Y69" s="17">
         <v>1.0499490316004079</v>
       </c>
-      <c r="Z69" s="19">
+      <c r="Z69" s="17">
         <v>1.1722731906218145</v>
       </c>
-      <c r="AA69" s="19">
+      <c r="AA69" s="17">
         <v>0.96839959225280325</v>
       </c>
-      <c r="AB69" s="19">
+      <c r="AB69" s="17">
         <v>0.89704383282364941</v>
       </c>
-      <c r="AC69" s="19">
+      <c r="AC69" s="17">
         <v>0.9174311926605504</v>
       </c>
-      <c r="AD69" s="19">
+      <c r="AD69" s="17">
         <v>1.0091743119266054</v>
       </c>
-      <c r="AE69" s="19">
+      <c r="AE69" s="17">
         <v>1.2232415902140672</v>
       </c>
-      <c r="AF69" s="19">
+      <c r="AF69" s="17">
         <v>1.4882772680937817</v>
       </c>
-      <c r="AG69" s="19">
+      <c r="AG69" s="17">
         <v>1.4984709480122322</v>
       </c>
-      <c r="AH69" s="19">
+      <c r="AH69" s="17">
         <v>1.7533129459734962</v>
       </c>
-      <c r="AI69" s="19">
+      <c r="AI69" s="17">
         <v>1.5800203873598369</v>
       </c>
-      <c r="AJ69" s="19">
+      <c r="AJ69" s="17">
         <v>1.5392456676860344</v>
       </c>
-      <c r="AK69" s="19">
+      <c r="AK69" s="17">
         <v>1.5392456676860344</v>
       </c>
-      <c r="AL69" s="19">
+      <c r="AL69" s="17">
         <v>1.600407747196738</v>
       </c>
-      <c r="AM69" s="19">
+      <c r="AM69" s="17">
         <v>1.9673802242609582</v>
       </c>
-      <c r="AN69" s="19">
+      <c r="AN69" s="17">
         <v>1.620795107033639</v>
       </c>
-      <c r="AO69" s="19">
+      <c r="AO69" s="17">
         <v>2.0183486238532109</v>
       </c>
-      <c r="AP69" s="19">
+      <c r="AP69" s="17">
         <v>2.0489296636085625</v>
       </c>
-      <c r="AQ69" s="19">
+      <c r="AQ69" s="17">
         <v>1.9367991845056065</v>
       </c>
-      <c r="AR69" s="19">
+      <c r="AR69" s="17">
         <v>2.7217125382262997</v>
       </c>
-      <c r="AS69" s="19">
+      <c r="AS69" s="17">
         <v>2.477064220183486</v>
       </c>
-      <c r="AT69" s="19">
+      <c r="AT69" s="17">
         <v>2.0081549439347604</v>
       </c>
-      <c r="AU69" s="19">
+      <c r="AU69" s="17">
         <v>2.1304791029561669</v>
       </c>
-      <c r="AV69" s="19">
+      <c r="AV69" s="17">
         <v>2.4464831804281344</v>
       </c>
-      <c r="AW69" s="19">
+      <c r="AW69" s="17">
         <v>2.1610601427115186</v>
       </c>
-      <c r="AX69" s="19">
+      <c r="AX69" s="17">
         <v>2.3343527013251779</v>
       </c>
-      <c r="AY69" s="19">
+      <c r="AY69" s="17">
         <v>2.2731906218144751</v>
       </c>
-      <c r="AZ69" s="19">
+      <c r="AZ69" s="17">
         <v>2.9255861365953106</v>
       </c>
-      <c r="BA69" s="19">
+      <c r="BA69" s="17">
         <v>3.3027522935779814</v>
       </c>
-      <c r="BB69" s="19">
+      <c r="BB69" s="17">
         <v>3.0377166156982671</v>
       </c>
-      <c r="BC69" s="19">
+      <c r="BC69" s="17">
         <v>2.6299694189602447</v>
       </c>
-      <c r="BD69" s="19">
+      <c r="BD69" s="17">
         <v>2.6809378185524975</v>
       </c>
-      <c r="BE69" s="19">
+      <c r="BE69" s="17">
         <v>3.7410805300713559</v>
       </c>
-      <c r="BF69" s="19">
+      <c r="BF69" s="17">
         <v>2.9765545361875634</v>
       </c>
-      <c r="BG69" s="19">
+      <c r="BG69" s="17">
         <v>3.4046890927624869</v>
       </c>
-      <c r="BH69" s="19">
+      <c r="BH69" s="17">
         <v>3.4250764525993884</v>
       </c>
-      <c r="BI69" s="19">
+      <c r="BI69" s="17">
         <v>3.0479102956167172</v>
       </c>
-      <c r="BJ69" s="19">
+      <c r="BJ69" s="17">
         <v>3.2110091743119265</v>
       </c>
-      <c r="BK69" s="19">
+      <c r="BK69" s="17">
         <v>4.2405708460754328</v>
       </c>
-      <c r="BL69" s="19">
+      <c r="BL69" s="17">
         <v>3.0682976554536188</v>
       </c>
-      <c r="BM69" s="19">
+      <c r="BM69" s="17">
         <v>4.5259938837920481</v>
       </c>
-      <c r="BN69" s="19">
+      <c r="BN69" s="17">
         <v>4.6381243628950051</v>
       </c>
-      <c r="BO69" s="19">
+      <c r="BO69" s="17">
         <v>4.0061162079510702</v>
       </c>
-      <c r="BP69" s="19">
+      <c r="BP69" s="17">
         <v>3.3333333333333335</v>
       </c>
-      <c r="BQ69" s="19">
+      <c r="BQ69" s="17">
         <v>3.5372069317023445</v>
       </c>
-      <c r="BR69" s="19">
+      <c r="BR69" s="17">
         <v>3.5983690112130473</v>
       </c>
-      <c r="BS69" s="19">
+      <c r="BS69" s="17">
         <v>3.659531090723751</v>
       </c>
-      <c r="BT69" s="19">
+      <c r="BT69" s="17">
         <v>4.2405708460754328</v>
       </c>
-      <c r="BU69" s="19">
+      <c r="BU69" s="17">
         <v>4.9133537206931699</v>
       </c>
-      <c r="BV69" s="19">
+      <c r="BV69" s="17">
         <v>3.5677879714576961</v>
       </c>
-      <c r="BW69" s="19">
+      <c r="BW69" s="17">
         <v>4.2405708460754328</v>
       </c>
-      <c r="BX69" s="19">
+      <c r="BX69" s="17">
         <v>5.0254841997961259</v>
       </c>
-      <c r="BY69" s="19">
+      <c r="BY69" s="17">
         <v>4.0876656472986745</v>
       </c>
-      <c r="BZ69" s="19">
+      <c r="BZ69" s="17">
         <v>4.6483180428134556</v>
       </c>
-      <c r="CA69" s="19">
+      <c r="CA69" s="17">
         <v>4.2303771661569822</v>
       </c>
-      <c r="CB69" s="19">
+      <c r="CB69" s="17">
         <v>4.8012232415902139</v>
       </c>
-      <c r="CC69" s="19">
+      <c r="CC69" s="17">
         <v>4.077471967380224</v>
       </c>
-      <c r="CD69" s="19">
+      <c r="CD69" s="17">
         <v>5.066258919469929</v>
       </c>
-      <c r="CE69" s="19">
+      <c r="CE69" s="17">
         <v>5.6167176350662587</v>
       </c>
-      <c r="CF69" s="19">
+      <c r="CF69" s="17">
         <v>4.5667686034658503</v>
       </c>
-      <c r="CG69" s="19">
+      <c r="CG69" s="17">
         <v>5.2395514780835875</v>
       </c>
-      <c r="CH69" s="19">
+      <c r="CH69" s="17">
         <v>5.6167176350662587</v>
       </c>
-      <c r="CI69" s="19">
+      <c r="CI69" s="17">
         <v>4.3832823649337405</v>
       </c>
-      <c r="CJ69" s="19">
+      <c r="CJ69" s="17">
         <v>4.5361875637104996</v>
       </c>
-      <c r="CK69" s="19">
+      <c r="CK69" s="17">
         <v>5.0356778797145765</v>
       </c>
-      <c r="CL69" s="19">
+      <c r="CL69" s="17">
         <v>6.0652395514780837</v>
       </c>
-      <c r="CM69" s="19">
+      <c r="CM69" s="17">
         <v>6.2996941896024463</v>
       </c>
-      <c r="CN69" s="19">
+      <c r="CN69" s="17">
         <v>5.8715596330275224</v>
       </c>
-      <c r="CO69" s="19">
+      <c r="CO69" s="17">
         <v>5.1172273190621818</v>
       </c>
-      <c r="CP69" s="19">
+      <c r="CP69" s="17">
         <v>5.1172273190621818</v>
       </c>
-      <c r="CQ69" s="19">
+      <c r="CQ69" s="17">
         <v>5.1681957186544345</v>
       </c>
-      <c r="CR69" s="19">
+      <c r="CR69" s="17">
         <v>5.8817533129459738</v>
       </c>
-      <c r="CS69" s="19">
+      <c r="CS69" s="17">
         <v>6.3098878695208969</v>
       </c>
-      <c r="CT69" s="19">
+      <c r="CT69" s="17">
         <v>5.6472986748216103</v>
       </c>
-      <c r="CU69" s="19">
+      <c r="CU69" s="17">
         <v>6.5647298674821615</v>
       </c>
-      <c r="CV69" s="19">
+      <c r="CV69" s="17">
         <v>6.982670744138634</v>
       </c>
-      <c r="CW69" s="19">
+      <c r="CW69" s="17">
         <v>5.5147808358817532</v>
       </c>
-      <c r="CX69" s="19">
+      <c r="CX69" s="17">
         <v>6.9011213047910296</v>
       </c>
-      <c r="CY69" s="19">
+      <c r="CY69" s="17">
         <v>7.1355759429153922</v>
       </c>
-      <c r="CZ69" s="19">
+      <c r="CZ69" s="17">
         <v>5.5657492354740059</v>
       </c>
-      <c r="DA69" s="19">
+      <c r="DA69" s="17">
         <v>5.902140672782874</v>
       </c>
-      <c r="DB69" s="19">
+      <c r="DB69" s="17">
         <v>5.9836901121304793</v>
       </c>
-      <c r="DC69" s="19">
+      <c r="DC69" s="17">
         <v>6.3608562691131496</v>
       </c>
-      <c r="DD69" s="19">
+      <c r="DD69" s="17">
         <v>6.330275229357798</v>
       </c>
-      <c r="DE69" s="19">
+      <c r="DE69" s="17">
         <v>6.6870540265035672</v>
       </c>
-      <c r="DF69" s="19">
+      <c r="DF69" s="17">
         <v>6.8807339449541285</v>
       </c>
-      <c r="DG69" s="19">
+      <c r="DG69" s="17">
         <v>7.3802242609582063</v>
       </c>
-      <c r="DH69" s="19">
+      <c r="DH69" s="17">
         <v>7.4821610601427118</v>
       </c>
-      <c r="DI69" s="19">
+      <c r="DI69" s="17">
         <v>6.2181447502548419</v>
       </c>
-      <c r="DJ69" s="19">
+      <c r="DJ69" s="17">
         <v>6.2691131498470947</v>
       </c>
-      <c r="DK69" s="19">
+      <c r="DK69" s="17">
         <v>7.7370030581039755</v>
       </c>
-      <c r="DL69" s="19">
+      <c r="DL69" s="17">
         <v>7.951070336391437</v>
       </c>
-      <c r="DM69" s="19">
+      <c r="DM69" s="17">
         <v>6.6055045871559628</v>
       </c>
-      <c r="DN69" s="19">
+      <c r="DN69" s="17">
         <v>6.9011213047910296</v>
       </c>
-      <c r="DO69" s="19">
+      <c r="DO69" s="17">
         <v>7.2986748216106001</v>
       </c>
-      <c r="DP69" s="19">
+      <c r="DP69" s="17">
         <v>6.8297655453618749</v>
       </c>
-      <c r="DQ69" s="19">
+      <c r="DQ69" s="17">
         <v>7.1355759429153922</v>
       </c>
-      <c r="DR69" s="19">
+      <c r="DR69" s="17">
         <v>7.186544342507645</v>
       </c>
-      <c r="DS69" s="19">
+      <c r="DS69" s="17">
         <v>8.7461773700305798</v>
       </c>
-      <c r="DT69" s="19">
+      <c r="DT69" s="17">
         <v>7.1559633027522933</v>
       </c>
-      <c r="DU69" s="19">
+      <c r="DU69" s="17">
         <v>7.7777777777777768</v>
       </c>
-      <c r="DV69" s="19">
+      <c r="DV69" s="17">
         <v>7.8287461773700295</v>
       </c>
-      <c r="DW69" s="19">
+      <c r="DW69" s="17">
         <v>7.9001019367991843</v>
       </c>
-      <c r="DX69" s="19">
+      <c r="DX69" s="17">
         <v>8.154943934760448</v>
       </c>
-      <c r="DY69" s="19">
+      <c r="DY69" s="17">
         <v>8.9398572884811411</v>
       </c>
-      <c r="DZ69" s="19">
+      <c r="DZ69" s="17">
         <v>7.9918450560652401</v>
       </c>
-      <c r="EA69" s="19">
+      <c r="EA69" s="17">
         <v>8.2161060142711513</v>
       </c>
-      <c r="EB69" s="19">
+      <c r="EB69" s="17">
         <v>8.2161060142711513</v>
       </c>
-      <c r="EC69" s="19">
+      <c r="EC69" s="17">
         <v>9.2252803261977565</v>
       </c>
-      <c r="ED69" s="19">
+      <c r="ED69" s="17">
         <v>9.4291539245667675</v>
       </c>
-      <c r="EE69" s="19">
+      <c r="EE69" s="17">
         <v>8.2364933741080524</v>
       </c>
-      <c r="EF69" s="19">
+      <c r="EF69" s="17">
         <v>8.3282364933741082</v>
       </c>
-      <c r="EG69" s="19">
+      <c r="EG69" s="17">
         <v>8.6748216106014269</v>
       </c>
-      <c r="EH69" s="19">
+      <c r="EH69" s="17">
         <v>9.1437308868501521</v>
       </c>
-      <c r="EI69" s="19">
+      <c r="EI69" s="17">
         <v>9.3985728848114167</v>
       </c>
-      <c r="EJ69" s="19">
+      <c r="EJ69" s="17">
         <v>9.45973496432212</v>
       </c>
-      <c r="EK69" s="19">
+      <c r="EK69" s="17">
         <v>9.5922528032619763</v>
       </c>
-      <c r="EL69" s="19">
+      <c r="EL69" s="17">
         <v>9.6941896024464818</v>
       </c>
-      <c r="EM69" s="19">
+      <c r="EM69" s="17">
         <v>10.244648318042813</v>
       </c>
-      <c r="EN69" s="19">
+      <c r="EN69" s="17">
         <v>9.663608562691131</v>
       </c>
     </row>
@@ -5418,433 +5418,433 @@
       <c r="A70" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="19">
+      <c r="B70" s="17">
         <v>1E-10</v>
       </c>
       <c r="C70" s="5">
         <v>1E-10</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="18">
         <v>0.13</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E70" s="17">
         <v>0.79</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F70" s="17">
         <v>1.01</v>
       </c>
-      <c r="G70" s="19">
+      <c r="G70" s="17">
         <v>1.08</v>
       </c>
-      <c r="H70" s="19">
+      <c r="H70" s="17">
         <v>1.34</v>
       </c>
-      <c r="I70" s="19">
+      <c r="I70" s="17">
         <v>1.42</v>
       </c>
-      <c r="J70" s="19">
+      <c r="J70" s="17">
         <v>1.44</v>
       </c>
-      <c r="K70" s="19">
+      <c r="K70" s="17">
         <v>1.51</v>
       </c>
       <c r="L70" s="5">
         <v>1.58</v>
       </c>
-      <c r="M70" s="19">
+      <c r="M70" s="17">
         <v>1.64</v>
       </c>
-      <c r="N70" s="19">
+      <c r="N70" s="17">
         <v>1.84</v>
       </c>
       <c r="O70" s="5">
         <v>1.88</v>
       </c>
-      <c r="P70" s="19">
+      <c r="P70" s="17">
         <v>1.98</v>
       </c>
-      <c r="Q70" s="20">
+      <c r="Q70" s="18">
         <v>1.99</v>
       </c>
-      <c r="R70" s="20">
+      <c r="R70" s="18">
         <v>2.13</v>
       </c>
-      <c r="S70" s="19">
+      <c r="S70" s="17">
         <v>2.17</v>
       </c>
-      <c r="T70" s="19">
+      <c r="T70" s="17">
         <v>2.19</v>
       </c>
-      <c r="U70" s="19">
+      <c r="U70" s="17">
         <v>2.25</v>
       </c>
-      <c r="V70" s="19">
+      <c r="V70" s="17">
         <v>2.37</v>
       </c>
-      <c r="W70" s="19">
+      <c r="W70" s="17">
         <v>2.4500000000000002</v>
       </c>
-      <c r="X70" s="20">
+      <c r="X70" s="18">
         <v>2.57</v>
       </c>
       <c r="Y70" s="5">
         <v>2.79</v>
       </c>
-      <c r="Z70" s="19">
+      <c r="Z70" s="17">
         <v>2.8</v>
       </c>
-      <c r="AA70" s="19">
+      <c r="AA70" s="17">
         <v>2.9</v>
       </c>
-      <c r="AB70" s="19">
+      <c r="AB70" s="17">
         <v>2.96</v>
       </c>
-      <c r="AC70" s="20">
+      <c r="AC70" s="18">
         <v>3.08</v>
       </c>
-      <c r="AD70" s="19">
+      <c r="AD70" s="17">
         <v>3.21</v>
       </c>
-      <c r="AE70" s="19">
+      <c r="AE70" s="17">
         <v>3.31</v>
       </c>
-      <c r="AF70" s="19">
+      <c r="AF70" s="17">
         <v>3.5</v>
       </c>
-      <c r="AG70" s="19">
+      <c r="AG70" s="17">
         <v>3.67</v>
       </c>
-      <c r="AH70" s="20">
+      <c r="AH70" s="18">
         <v>3.71</v>
       </c>
       <c r="AI70" s="5">
         <v>3.73</v>
       </c>
-      <c r="AJ70" s="19">
+      <c r="AJ70" s="17">
         <v>3.79</v>
       </c>
-      <c r="AK70" s="19">
+      <c r="AK70" s="17">
         <v>3.92</v>
       </c>
-      <c r="AL70" s="19">
+      <c r="AL70" s="17">
         <v>3.97</v>
       </c>
-      <c r="AM70" s="19">
+      <c r="AM70" s="17">
         <v>3.99</v>
       </c>
-      <c r="AN70" s="20">
+      <c r="AN70" s="18">
         <v>4.03</v>
       </c>
       <c r="AO70" s="5">
         <v>4.04</v>
       </c>
-      <c r="AP70" s="19">
+      <c r="AP70" s="17">
         <v>4.12</v>
       </c>
-      <c r="AQ70" s="20">
+      <c r="AQ70" s="18">
         <v>4.1500000000000004</v>
       </c>
-      <c r="AR70" s="20">
+      <c r="AR70" s="18">
         <v>4.17</v>
       </c>
       <c r="AS70" s="5">
         <v>4.18</v>
       </c>
-      <c r="AT70" s="19">
+      <c r="AT70" s="17">
         <v>4.1900000000000004</v>
       </c>
-      <c r="AU70" s="19">
+      <c r="AU70" s="17">
         <v>4.2</v>
       </c>
-      <c r="AV70" s="19">
+      <c r="AV70" s="17">
         <v>4.22</v>
       </c>
-      <c r="AW70" s="19">
+      <c r="AW70" s="17">
         <v>4.24</v>
       </c>
-      <c r="AX70" s="19">
+      <c r="AX70" s="17">
         <v>4.25</v>
       </c>
-      <c r="AY70" s="20">
+      <c r="AY70" s="18">
         <v>4.2699999999999996</v>
       </c>
-      <c r="AZ70" s="19">
+      <c r="AZ70" s="17">
         <v>4.32</v>
       </c>
-      <c r="BA70" s="20">
+      <c r="BA70" s="18">
         <v>4.32</v>
       </c>
       <c r="BB70" s="5">
         <v>4.34</v>
       </c>
-      <c r="BC70" s="19">
+      <c r="BC70" s="17">
         <v>4.38</v>
       </c>
-      <c r="BD70" s="20">
+      <c r="BD70" s="18">
         <v>4.38</v>
       </c>
-      <c r="BE70" s="19">
+      <c r="BE70" s="17">
         <v>4.42</v>
       </c>
-      <c r="BF70" s="19">
+      <c r="BF70" s="17">
         <v>4.43</v>
       </c>
       <c r="BG70" s="5">
         <v>4.43</v>
       </c>
-      <c r="BH70" s="19">
+      <c r="BH70" s="17">
         <v>4.4400000000000004</v>
       </c>
-      <c r="BI70" s="19">
+      <c r="BI70" s="17">
         <v>4.45</v>
       </c>
-      <c r="BJ70" s="19">
+      <c r="BJ70" s="17">
         <v>4.45</v>
       </c>
-      <c r="BK70" s="19">
+      <c r="BK70" s="17">
         <v>4.45</v>
       </c>
-      <c r="BL70" s="20">
+      <c r="BL70" s="18">
         <v>4.47</v>
       </c>
-      <c r="BM70" s="20">
+      <c r="BM70" s="18">
         <v>4.47</v>
       </c>
-      <c r="BN70" s="19">
+      <c r="BN70" s="17">
         <v>4.47</v>
       </c>
       <c r="BO70" s="5">
         <v>4.4800000000000004</v>
       </c>
-      <c r="BP70" s="19">
+      <c r="BP70" s="17">
         <v>4.49</v>
       </c>
-      <c r="BQ70" s="20">
+      <c r="BQ70" s="18">
         <v>4.5</v>
       </c>
-      <c r="BR70" s="19">
+      <c r="BR70" s="17">
         <v>4.5</v>
       </c>
-      <c r="BS70" s="19">
+      <c r="BS70" s="17">
         <v>4.5</v>
       </c>
-      <c r="BT70" s="19">
+      <c r="BT70" s="17">
         <v>4.5</v>
       </c>
-      <c r="BU70" s="20">
+      <c r="BU70" s="18">
         <v>4.5</v>
       </c>
-      <c r="BV70" s="19">
+      <c r="BV70" s="17">
         <v>4.51</v>
       </c>
       <c r="BW70" s="5">
         <v>4.51</v>
       </c>
-      <c r="BX70" s="19">
+      <c r="BX70" s="17">
         <v>4.5199999999999996</v>
       </c>
-      <c r="BY70" s="19">
+      <c r="BY70" s="17">
         <v>4.53</v>
       </c>
-      <c r="BZ70" s="19">
+      <c r="BZ70" s="17">
         <v>4.53</v>
       </c>
-      <c r="CA70" s="19">
+      <c r="CA70" s="17">
         <v>4.54</v>
       </c>
       <c r="CB70" s="5">
         <v>4.54</v>
       </c>
-      <c r="CC70" s="19">
+      <c r="CC70" s="17">
         <v>4.55</v>
       </c>
-      <c r="CD70" s="19">
+      <c r="CD70" s="17">
         <v>4.55</v>
       </c>
-      <c r="CE70" s="19">
+      <c r="CE70" s="17">
         <v>4.55</v>
       </c>
-      <c r="CF70" s="19">
+      <c r="CF70" s="17">
         <v>4.57</v>
       </c>
       <c r="CG70" s="5">
         <v>4.57</v>
       </c>
-      <c r="CH70" s="20">
+      <c r="CH70" s="18">
         <v>4.57</v>
       </c>
-      <c r="CI70" s="20">
+      <c r="CI70" s="18">
         <v>4.58</v>
       </c>
-      <c r="CJ70" s="19">
+      <c r="CJ70" s="17">
         <v>4.58</v>
       </c>
-      <c r="CK70" s="19">
+      <c r="CK70" s="17">
         <v>4.58</v>
       </c>
-      <c r="CL70" s="19">
+      <c r="CL70" s="17">
         <v>4.58</v>
       </c>
-      <c r="CM70" s="20">
+      <c r="CM70" s="18">
         <v>4.58</v>
       </c>
-      <c r="CN70" s="19">
+      <c r="CN70" s="17">
         <v>4.59</v>
       </c>
-      <c r="CO70" s="19">
+      <c r="CO70" s="17">
         <v>4.5999999999999996</v>
       </c>
-      <c r="CP70" s="20">
+      <c r="CP70" s="18">
         <v>4.5999999999999996</v>
       </c>
-      <c r="CQ70" s="19">
+      <c r="CQ70" s="17">
         <v>4.5999999999999996</v>
       </c>
       <c r="CR70" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="CS70" s="19">
+      <c r="CS70" s="17">
         <v>4.5999999999999996</v>
       </c>
-      <c r="CT70" s="19">
+      <c r="CT70" s="17">
         <v>4.6100000000000003</v>
       </c>
-      <c r="CU70" s="19">
+      <c r="CU70" s="17">
         <v>4.6100000000000003</v>
       </c>
-      <c r="CV70" s="20">
+      <c r="CV70" s="18">
         <v>4.6100000000000003</v>
       </c>
-      <c r="CW70" s="20">
+      <c r="CW70" s="18">
         <v>4.62</v>
       </c>
-      <c r="CX70" s="19">
+      <c r="CX70" s="17">
         <v>4.62</v>
       </c>
-      <c r="CY70" s="19">
+      <c r="CY70" s="17">
         <v>4.62</v>
       </c>
-      <c r="CZ70" s="19">
+      <c r="CZ70" s="17">
         <v>4.63</v>
       </c>
-      <c r="DA70" s="19">
+      <c r="DA70" s="17">
         <v>4.63</v>
       </c>
-      <c r="DB70" s="19">
+      <c r="DB70" s="17">
         <v>4.63</v>
       </c>
       <c r="DC70" s="5">
         <v>4.63</v>
       </c>
-      <c r="DD70" s="19">
+      <c r="DD70" s="17">
         <v>4.6399999999999997</v>
       </c>
-      <c r="DE70" s="19">
+      <c r="DE70" s="17">
         <v>4.6399999999999997</v>
       </c>
       <c r="DF70" s="5">
         <v>4.6399999999999997</v>
       </c>
-      <c r="DG70" s="19">
+      <c r="DG70" s="17">
         <v>4.6399999999999997</v>
       </c>
-      <c r="DH70" s="20">
+      <c r="DH70" s="18">
         <v>4.6399999999999997</v>
       </c>
-      <c r="DI70" s="19">
+      <c r="DI70" s="17">
         <v>4.6500000000000004</v>
       </c>
-      <c r="DJ70" s="20">
+      <c r="DJ70" s="18">
         <v>4.6500000000000004</v>
       </c>
-      <c r="DK70" s="19">
+      <c r="DK70" s="17">
         <v>4.6500000000000004</v>
       </c>
-      <c r="DL70" s="20">
+      <c r="DL70" s="18">
         <v>4.6500000000000004</v>
       </c>
-      <c r="DM70" s="19">
+      <c r="DM70" s="17">
         <v>4.66</v>
       </c>
-      <c r="DN70" s="20">
+      <c r="DN70" s="18">
         <v>4.66</v>
       </c>
       <c r="DO70" s="5">
         <v>4.66</v>
       </c>
-      <c r="DP70" s="19">
+      <c r="DP70" s="17">
         <v>4.67</v>
       </c>
-      <c r="DQ70" s="19">
+      <c r="DQ70" s="17">
         <v>4.67</v>
       </c>
-      <c r="DR70" s="19">
+      <c r="DR70" s="17">
         <v>4.67</v>
       </c>
-      <c r="DS70" s="19">
+      <c r="DS70" s="17">
         <v>4.67</v>
       </c>
-      <c r="DT70" s="19">
+      <c r="DT70" s="17">
         <v>4.68</v>
       </c>
-      <c r="DU70" s="19">
+      <c r="DU70" s="17">
         <v>4.68</v>
       </c>
-      <c r="DV70" s="19">
+      <c r="DV70" s="17">
         <v>4.68</v>
       </c>
-      <c r="DW70" s="20">
+      <c r="DW70" s="18">
         <v>4.68</v>
       </c>
-      <c r="DX70" s="19">
+      <c r="DX70" s="17">
         <v>4.68</v>
       </c>
-      <c r="DY70" s="20">
+      <c r="DY70" s="18">
         <v>4.68</v>
       </c>
       <c r="DZ70" s="5">
         <v>4.6900000000000004</v>
       </c>
-      <c r="EA70" s="19">
+      <c r="EA70" s="17">
         <v>4.6900000000000004</v>
       </c>
-      <c r="EB70" s="19">
+      <c r="EB70" s="17">
         <v>4.6900000000000004</v>
       </c>
-      <c r="EC70" s="20">
+      <c r="EC70" s="18">
         <v>4.6900000000000004</v>
       </c>
-      <c r="ED70" s="20">
+      <c r="ED70" s="18">
         <v>4.6900000000000004</v>
       </c>
-      <c r="EE70" s="19">
+      <c r="EE70" s="17">
         <v>4.7</v>
       </c>
-      <c r="EF70" s="19">
+      <c r="EF70" s="17">
         <v>4.7</v>
       </c>
       <c r="EG70" s="5">
         <v>4.7</v>
       </c>
-      <c r="EH70" s="19">
+      <c r="EH70" s="17">
         <v>4.7</v>
       </c>
-      <c r="EI70" s="20">
+      <c r="EI70" s="18">
         <v>4.7</v>
       </c>
-      <c r="EJ70" s="19">
+      <c r="EJ70" s="17">
         <v>4.7</v>
       </c>
-      <c r="EK70" s="19">
+      <c r="EK70" s="17">
         <v>4.7</v>
       </c>
-      <c r="EL70" s="19">
+      <c r="EL70" s="17">
         <v>4.7</v>
       </c>
-      <c r="EM70" s="19">
+      <c r="EM70" s="17">
         <v>4.7</v>
       </c>
-      <c r="EN70" s="19">
+      <c r="EN70" s="17">
         <v>4.71</v>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
     <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="10" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5871,6 +5871,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5883,5 +5884,6 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>